--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value161.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value161.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.084445488127289</v>
+        <v>3.620328187942505</v>
       </c>
       <c r="B1">
-        <v>1.666478688954921</v>
+        <v>3.622976303100586</v>
       </c>
       <c r="C1">
-        <v>1.950294568283034</v>
+        <v>2.733088254928589</v>
       </c>
       <c r="D1">
-        <v>2.141292672897894</v>
+        <v>2.499660968780518</v>
       </c>
       <c r="E1">
-        <v>2.165490635218276</v>
+        <v>2.552166700363159</v>
       </c>
     </row>
   </sheetData>
